--- a/config_aomi_6.8/game_module_config.xlsx
+++ b/config_aomi_6.8/game_module_config.xlsx
@@ -11,14 +11,14 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$340</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$341</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1003">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3276,7 +3276,7 @@
     <t>act_ty_ldfd</t>
   </si>
   <si>
-    <t>幸运福袋</t>
+    <t>端午福袋</t>
   </si>
   <si>
     <t>Act_ty_LDFDManager</t>
@@ -3600,7 +3600,7 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_017_dlphb</t>
+    <t>act_ty_sjb_style/act_018_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（消耗）</t>
@@ -3609,10 +3609,10 @@
     <t>3月29日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_017_tgboos</t>
-  </si>
-  <si>
-    <t>棒棒糖掉落</t>
+    <t>act_ty_by_drop_style/act_018_zongzi</t>
+  </si>
+  <si>
+    <t>粽子掉落</t>
   </si>
   <si>
     <t>5月24日23:59:59</t>
@@ -3630,7 +3630,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_018</t>
+    <t>sys_act_base_style/sys_act_base_weekly_019</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3738,13 +3738,10 @@
     <t>act_052_qfhl</t>
   </si>
   <si>
-    <t>龙腾祈福</t>
+    <t>祈福有礼</t>
   </si>
   <si>
     <t>Act_052_QFHLManager</t>
-  </si>
-  <si>
-    <t>2021年4月16日 23:59:59</t>
   </si>
   <si>
     <t>act_ty_gifts</t>
@@ -3835,12 +3832,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3915,14 +3912,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF171A1D"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3936,24 +3927,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3965,15 +3941,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -3993,6 +3980,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -4001,32 +3996,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4039,6 +4011,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -4046,16 +4026,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4069,7 +4042,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4078,12 +4050,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4128,7 +4112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4140,7 +4124,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4152,7 +4142,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4164,7 +4160,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4176,7 +4244,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4194,96 +4268,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4296,19 +4280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4352,11 +4324,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4379,8 +4357,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4402,35 +4389,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4442,10 +4414,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4454,137 +4426,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4734,8 +4706,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5067,11 +5039,11 @@
   <dimension ref="A1:I341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C330" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C278" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B345" sqref="B345"/>
+      <selection pane="bottomRight" activeCell="G296" sqref="G296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12397,13 +12369,13 @@
         <v>837</v>
       </c>
       <c r="E288" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G288" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I288" s="36" t="s">
         <v>723</v>
@@ -13191,13 +13163,13 @@
         <v>936</v>
       </c>
       <c r="E319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" s="36" t="s">
         <v>931</v>
@@ -13399,7 +13371,7 @@
       <c r="G327" s="5">
         <v>1</v>
       </c>
-      <c r="I327" s="50">
+      <c r="I327" s="49">
         <v>44354</v>
       </c>
     </row>
@@ -13547,16 +13519,16 @@
         <v>976</v>
       </c>
       <c r="E333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333" s="5">
-        <v>0</v>
-      </c>
-      <c r="I333" s="32" t="s">
-        <v>977</v>
+        <v>1</v>
+      </c>
+      <c r="I333" s="50">
+        <v>44355</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13564,25 +13536,25 @@
         <v>333</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C334" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D334" t="s">
+        <v>978</v>
+      </c>
+      <c r="E334" s="5">
+        <v>0</v>
+      </c>
+      <c r="F334" s="5">
+        <v>0</v>
+      </c>
+      <c r="G334" s="5">
+        <v>0</v>
+      </c>
+      <c r="I334" s="32" t="s">
         <v>979</v>
-      </c>
-      <c r="E334" s="5">
-        <v>1</v>
-      </c>
-      <c r="F334" s="5">
-        <v>1</v>
-      </c>
-      <c r="G334" s="5">
-        <v>1</v>
-      </c>
-      <c r="I334" s="32" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13590,22 +13562,22 @@
         <v>334</v>
       </c>
       <c r="B335" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="C335" s="32" t="s">
         <v>981</v>
       </c>
-      <c r="C335" s="32" t="s">
+      <c r="E335" s="5">
+        <v>0</v>
+      </c>
+      <c r="F335" s="5">
+        <v>0</v>
+      </c>
+      <c r="G335" s="5">
+        <v>0</v>
+      </c>
+      <c r="I335" s="32" t="s">
         <v>982</v>
-      </c>
-      <c r="E335" s="5">
-        <v>1</v>
-      </c>
-      <c r="F335" s="5">
-        <v>1</v>
-      </c>
-      <c r="G335" s="5">
-        <v>1</v>
-      </c>
-      <c r="I335" s="32" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -13613,13 +13585,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="C336" s="32" t="s">
         <v>984</v>
       </c>
-      <c r="C336" s="32" t="s">
+      <c r="D336" s="28" t="s">
         <v>985</v>
-      </c>
-      <c r="D336" s="28" t="s">
-        <v>986</v>
       </c>
       <c r="E336" s="5">
         <v>0</v>
@@ -13636,13 +13608,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="C337" s="32" t="s">
         <v>987</v>
       </c>
-      <c r="C337" s="32" t="s">
+      <c r="D337" s="28" t="s">
         <v>988</v>
-      </c>
-      <c r="D337" s="28" t="s">
-        <v>989</v>
       </c>
       <c r="E337" s="5">
         <v>0</v>
@@ -13659,10 +13631,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="C338" t="s">
         <v>990</v>
-      </c>
-      <c r="C338" t="s">
-        <v>991</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -13682,13 +13654,13 @@
         <v>338</v>
       </c>
       <c r="B339" s="47" t="s">
+        <v>991</v>
+      </c>
+      <c r="C339" t="s">
         <v>992</v>
       </c>
-      <c r="C339" t="s">
+      <c r="D339" s="48" t="s">
         <v>993</v>
-      </c>
-      <c r="D339" s="48" t="s">
-        <v>994</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -13705,55 +13677,55 @@
         <v>339</v>
       </c>
       <c r="B340" s="47" t="s">
+        <v>994</v>
+      </c>
+      <c r="C340" t="s">
         <v>995</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" s="47" t="s">
         <v>996</v>
       </c>
-      <c r="D340" s="47" t="s">
+      <c r="E340" s="5">
+        <v>0</v>
+      </c>
+      <c r="F340" s="5">
+        <v>0</v>
+      </c>
+      <c r="G340" s="5">
+        <v>0</v>
+      </c>
+      <c r="I340" s="32" t="s">
         <v>997</v>
-      </c>
-      <c r="E340" s="5">
-        <v>0</v>
-      </c>
-      <c r="F340" s="5">
-        <v>0</v>
-      </c>
-      <c r="G340" s="5">
-        <v>0</v>
-      </c>
-      <c r="I340" s="32" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="341" customFormat="1" ht="15.75" spans="1:9">
       <c r="A341" s="5">
         <v>340</v>
       </c>
-      <c r="B341" s="49" t="s">
+      <c r="B341" s="47" t="s">
+        <v>998</v>
+      </c>
+      <c r="C341" t="s">
         <v>999</v>
       </c>
-      <c r="C341" t="s">
+      <c r="D341" s="47" t="s">
         <v>1000</v>
       </c>
-      <c r="D341" s="49" t="s">
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>1</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="I341" t="s">
         <v>1001</v>
       </c>
-      <c r="E341">
-        <v>1</v>
-      </c>
-      <c r="F341">
-        <v>1</v>
-      </c>
-      <c r="G341">
-        <v>1</v>
-      </c>
-      <c r="I341" t="s">
-        <v>1002</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H340">
+  <autoFilter ref="A1:H341">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13779,7 +13751,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_aomi_6.8/game_module_config.xlsx
+++ b/config_aomi_6.8/game_module_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="1006">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3819,6 +3819,15 @@
     <t>长期</t>
   </si>
   <si>
+    <t>act_042_xshb</t>
+  </si>
+  <si>
+    <t>限时红包</t>
+  </si>
+  <si>
+    <t>Act_042_XSHBManager</t>
+  </si>
+  <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
 (也许你的活动很简单，最好是统一都有一个活动自己的管理器)，这个脚本应该提供以下接口：
 Init 初始化Lua
@@ -3832,10 +3841,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -3913,7 +3922,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3921,6 +3937,59 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3934,46 +4003,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3989,14 +4019,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4010,55 +4063,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4112,7 +4121,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4124,7 +4145,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4136,19 +4163,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4160,13 +4259,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4178,109 +4289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4310,6 +4319,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -4324,17 +4372,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4357,50 +4410,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -4414,10 +4423,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4426,139 +4435,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4705,9 +4714,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5036,14 +5042,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I341"/>
+  <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C278" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C332" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G296" sqref="G296"/>
+      <selection pane="bottomRight" activeCell="B350" sqref="B350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13527,7 +13533,7 @@
       <c r="G333" s="5">
         <v>1</v>
       </c>
-      <c r="I333" s="50">
+      <c r="I333" s="49">
         <v>44355</v>
       </c>
     </row>
@@ -13645,7 +13651,7 @@
       <c r="G338">
         <v>1</v>
       </c>
-      <c r="I338" s="51">
+      <c r="I338" s="50">
         <v>44354</v>
       </c>
     </row>
@@ -13721,6 +13727,32 @@
         <v>1</v>
       </c>
       <c r="I341" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" s="5">
+        <v>341</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+      <c r="F342">
+        <v>1</v>
+      </c>
+      <c r="G342">
+        <v>1</v>
+      </c>
+      <c r="I342" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -13751,7 +13783,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_aomi_6.8/game_module_config.xlsx
+++ b/config_aomi_6.8/game_module_config.xlsx
@@ -11,7 +11,7 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$341</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$342</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3841,10 +3841,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -3929,14 +3929,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3952,30 +3945,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3987,46 +3974,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4041,7 +3998,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4055,19 +4051,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4121,19 +4121,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4145,13 +4151,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4163,91 +4205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4271,7 +4235,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4283,7 +4277,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4319,6 +4319,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -4329,45 +4344,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4387,7 +4363,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4415,6 +4391,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4423,10 +4423,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4435,137 +4435,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5045,11 +5045,11 @@
   <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C332" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C319" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B350" sqref="B350"/>
+      <selection pane="bottomRight" activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13643,13 +13643,13 @@
         <v>990</v>
       </c>
       <c r="E338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" s="50">
         <v>44354</v>
@@ -13757,7 +13757,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H341">
+  <autoFilter ref="A1:H342">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_aomi_6.8/game_module_config.xlsx
+++ b/config_aomi_6.8/game_module_config.xlsx
@@ -3753,7 +3753,7 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_004_hllb</t>
+    <t>act_ty_gifts_style/act_003_hflb</t>
   </si>
   <si>
     <t>欢乐礼包</t>
@@ -3841,8 +3841,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3929,7 +3929,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3945,39 +3989,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4012,6 +4026,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -4029,7 +4048,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4037,7 +4056,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4049,25 +4068,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4121,7 +4121,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4133,19 +4163,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4157,73 +4259,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4235,19 +4271,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4265,31 +4289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4318,6 +4318,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4329,6 +4353,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4350,20 +4383,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4385,33 +4407,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4423,10 +4423,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4435,137 +4435,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5049,7 +5049,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C336" sqref="C336"/>
+      <selection pane="bottomRight" activeCell="C345" sqref="C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
